--- a/documents/test/1_Testing_Gast_KA.xlsx
+++ b/documents/test/1_Testing_Gast_KA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Gast</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Anmelden</t>
   </si>
   <si>
-    <t>User erfolgreich eingeloggt</t>
-  </si>
-  <si>
     <t>Nutzer</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>Getestet von KA</t>
+  </si>
+  <si>
+    <t>Anmelde-Seite angezeigt</t>
+  </si>
+  <si>
+    <t>Anmelde-Seite wird angezeigt</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="B1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,13 +677,13 @@
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -752,10 +755,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -767,19 +770,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
@@ -791,19 +794,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
@@ -815,19 +818,19 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -839,25 +842,25 @@
     </row>
     <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="11">
         <v>42605</v>
@@ -865,19 +868,19 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -889,19 +892,19 @@
     </row>
     <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">

--- a/documents/test/1_Testing_Gast_KA.xlsx
+++ b/documents/test/1_Testing_Gast_KA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Gast</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Über Uns-Seite angesehen</t>
-  </si>
-  <si>
-    <t>Nein</t>
   </si>
   <si>
     <t>Über Uns-Seite wird angezeigt</t>
@@ -657,25 +654,25 @@
   <dimension ref="B1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -683,15 +680,15 @@
         <v>16</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
@@ -718,7 +715,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -744,7 +741,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -755,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -768,7 +765,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -792,7 +789,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -816,7 +813,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -827,10 +824,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -840,7 +837,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -848,39 +845,39 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I11" s="11">
         <v>42605</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -890,15 +887,15 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -914,7 +911,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -924,7 +921,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -934,7 +931,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -944,7 +941,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -954,7 +951,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -964,7 +961,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -974,7 +971,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -984,7 +981,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -994,7 +991,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1004,7 +1001,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1014,7 +1011,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1024,7 +1021,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1034,7 +1031,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1044,7 +1041,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1054,7 +1051,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1064,7 +1061,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1074,7 +1071,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1084,7 +1081,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1094,7 +1091,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1104,7 +1101,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1114,7 +1111,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1124,7 +1121,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1134,7 +1131,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1144,7 +1141,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1154,7 +1151,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1164,7 +1161,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1174,7 +1171,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1184,7 +1181,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1194,7 +1191,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1204,7 +1201,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1214,7 +1211,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -1224,7 +1221,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1234,7 +1231,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1244,7 +1241,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1254,7 +1251,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1264,7 +1261,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1274,7 +1271,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1284,7 +1281,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1294,7 +1291,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1304,7 +1301,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
